--- a/biology/Botanique/Aloo_tikki/Aloo_tikki.xlsx
+++ b/biology/Botanique/Aloo_tikki/Aloo_tikki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aloo tikki est un mets des régions du nord de l'Inde, à base de pommes de terre bouillies et de diverses épices. Ce nom est formé des termes aloo, qui signifie pomme de terre et tikki, qui désigne une petite côtelette ou une croquette. Présent dans presque tous les stands ou boutiques de chaat (spécialités indiennes souvent vendues dans la rue) de Delhi et d'autres régions de l'Inde, il est servi chaud accompagné de chutneys (sauces) saunth (chutney doux au gingembre), au tamarin ou à la coriandre et à la menthe, connu sous le nom de chutney hari, et parfois de yaourt ou de pois chiches.
